--- a/Stm32F7/STM32H723ZGT6_PIN.xlsx
+++ b/Stm32F7/STM32H723ZGT6_PIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\stm32_git_workspace\stm32_public_workspace\Stm32F7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386D6101-F907-49E3-A275-84C7225832F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD37D87-DA3F-4257-A67C-9660B2239A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{329B8DDE-580F-4FEB-AB19-42290A552E36}"/>
+    <workbookView xWindow="13125" yWindow="750" windowWidth="11700" windowHeight="11295" xr2:uid="{329B8DDE-580F-4FEB-AB19-42290A552E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>31474</xdr:colOff>
+      <xdr:colOff>31475</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1095,16 +1095,17 @@
   <dimension ref="F12:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
     <col min="12" max="16" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="6:22" x14ac:dyDescent="0.25">

--- a/Stm32F7/STM32H723ZGT6_PIN.xlsx
+++ b/Stm32F7/STM32H723ZGT6_PIN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\stm32_git_workspace\stm32_public_workspace\Stm32F7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD37D87-DA3F-4257-A67C-9660B2239A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BCAF2-D742-4153-BC02-AE3FFCA17617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="750" windowWidth="11700" windowHeight="11295" xr2:uid="{329B8DDE-580F-4FEB-AB19-42290A552E36}"/>
+    <workbookView xWindow="-105" yWindow="1500" windowWidth="13215" windowHeight="11295" xr2:uid="{329B8DDE-580F-4FEB-AB19-42290A552E36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,13 +453,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,14 +673,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>575616</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15322</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>177987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>40438</xdr:rowOff>
     </xdr:to>
@@ -711,7 +712,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11008292" y="2082987"/>
+          <a:off x="11411704" y="2082987"/>
           <a:ext cx="4086032" cy="5767951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -788,6 +789,187 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>37197</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39206451-F159-4A9B-AA9E-A7B057692F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16147676" y="2207559"/>
+          <a:ext cx="5572903" cy="4848902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428637</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400228</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF114EE-22A1-4F6A-9D6C-7DC581F01F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2790827" y="790575"/>
+          <a:ext cx="1343212" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485927</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA9A269-69AF-4CC5-B543-5CF8D07C12E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="542925"/>
+          <a:ext cx="1086002" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328594</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E7705-E142-414F-9D8C-351577AB2D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5343525" y="1123951"/>
+          <a:ext cx="1057423" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1092,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5625FC-87F6-43C9-84F9-350786BD72F3}">
-  <dimension ref="F12:V45"/>
+  <dimension ref="F12:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,817 +1290,967 @@
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V12" s="1">
+        <v>30</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
       <c r="T13" t="s">
         <v>1</v>
       </c>
       <c r="U13" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V13" s="1">
+        <v>29</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
       <c r="T14" t="s">
         <v>2</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="1">
+        <v>28</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
       <c r="T15" t="s">
         <v>3</v>
       </c>
       <c r="U15" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V15" s="1">
+        <v>27</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
       <c r="T16" t="s">
         <v>4</v>
       </c>
       <c r="U16" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="1">
+        <v>26</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
       <c r="T17" t="s">
         <v>5</v>
       </c>
       <c r="U17" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V17" s="1">
+        <v>25</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>64</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
       <c r="T18" t="s">
         <v>6</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="1">
+        <v>24</v>
+      </c>
+      <c r="W18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>65</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
       <c r="T19" t="s">
         <v>7</v>
       </c>
       <c r="U19" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="1">
+        <v>23</v>
+      </c>
+      <c r="W19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>66</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
       <c r="T20" t="s">
         <v>8</v>
       </c>
       <c r="U20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="1">
+        <v>22</v>
+      </c>
+      <c r="W20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>67</v>
       </c>
       <c r="G21" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
       <c r="T21" t="s">
         <v>9</v>
       </c>
       <c r="U21" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="1">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
       <c r="T22" t="s">
         <v>10</v>
       </c>
       <c r="U22" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="1">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
       <c r="T23" t="s">
         <v>11</v>
       </c>
       <c r="U23" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V23" s="1">
+        <v>19</v>
+      </c>
+      <c r="W23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
       <c r="T24" t="s">
         <v>12</v>
       </c>
       <c r="U24" t="s">
         <v>41</v>
       </c>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V24" s="1">
+        <v>18</v>
+      </c>
+      <c r="W24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
       <c r="T25" t="s">
         <v>13</v>
       </c>
       <c r="U25" t="s">
         <v>43</v>
       </c>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="1">
+        <v>17</v>
+      </c>
+      <c r="W25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>72</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="T26" t="s">
         <v>14</v>
       </c>
       <c r="U26" t="s">
         <v>44</v>
       </c>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V26" s="1">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="T27" t="s">
         <v>15</v>
       </c>
       <c r="U27" t="s">
         <v>45</v>
       </c>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V27" s="1">
+        <v>15</v>
+      </c>
+      <c r="W27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="T28" t="s">
         <v>16</v>
       </c>
       <c r="U28" t="s">
         <v>46</v>
       </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V28" s="1">
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>75</v>
       </c>
       <c r="G29" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="T29" t="s">
         <v>17</v>
       </c>
       <c r="U29" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V29" s="1">
+        <v>13</v>
+      </c>
+      <c r="W29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>76</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
       <c r="T30" t="s">
         <v>18</v>
       </c>
       <c r="U30" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V30" s="1">
+        <v>12</v>
+      </c>
+      <c r="W30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>77</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
       <c r="T31" t="s">
         <v>19</v>
       </c>
       <c r="U31" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V31" s="1">
+        <v>11</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>78</v>
       </c>
       <c r="G32" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="T32" t="s">
         <v>20</v>
       </c>
       <c r="U32" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V32" s="1">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>79</v>
       </c>
       <c r="G33" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
       <c r="T33" t="s">
         <v>21</v>
       </c>
       <c r="U33" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="1">
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>102</v>
       </c>
       <c r="G34" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
       <c r="T34" t="s">
         <v>22</v>
       </c>
       <c r="U34" t="s">
         <v>52</v>
       </c>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V34" s="1">
+        <v>8</v>
+      </c>
+      <c r="W34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>104</v>
       </c>
       <c r="G35" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="4" t="s">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U35" s="4" t="s">
+      <c r="U35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V35" s="1">
+        <v>7</v>
+      </c>
+      <c r="W35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>106</v>
       </c>
       <c r="G36" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
       <c r="T36" t="s">
         <v>24</v>
       </c>
       <c r="U36" t="s">
         <v>53</v>
       </c>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V36" s="1">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>108</v>
       </c>
       <c r="G37" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
       <c r="T37" t="s">
         <v>25</v>
       </c>
       <c r="U37" t="s">
         <v>54</v>
       </c>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V37" s="1">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>110</v>
       </c>
       <c r="G38" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
       <c r="T38" t="s">
         <v>26</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V38" s="1">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>112</v>
       </c>
       <c r="G39" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
       <c r="T39" t="s">
         <v>27</v>
       </c>
       <c r="U39" t="s">
         <v>56</v>
       </c>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F40" s="4" t="s">
+      <c r="V39" s="1">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="3" t="s">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="U40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F41" s="4" t="s">
+      <c r="V40" s="1">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="3" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="U41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -1931,16 +2263,16 @@
       <c r="M42" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="6:23" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>116</v>
       </c>
@@ -1953,40 +2285,40 @@
       <c r="M43" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="6:23" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>120</v>
       </c>
       <c r="K44" t="s">
         <v>119</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1995,4 +2327,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74504447-645C-487A-B8A7-D9156BD79BAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>